--- a/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>580001</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东吴嘉禾优势精选混合</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005515</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票A</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005516</t>
+          <t>580001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华中小市值量化优选股票C</t>
+          <t>东吴嘉禾优势精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009327</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东兴兴晟混合A</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.91</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009328</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东兴兴晟混合C</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.91</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>91.76</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.69</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>东兴兴晟混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>005515</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>005516</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -940,15 +1100,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1676,4 +1677,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300624-万兴科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2128,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.21</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="5">
@@ -2011,13 +2144,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
     </row>
